--- a/src/main/resources/TestData.xlsx
+++ b/src/main/resources/TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEFCF233-12A0-4D10-8B1A-6AB34D6A9DA7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97EF5BCE-DC1A-4DE0-A856-C0C0E80EE395}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -402,7 +402,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/main/resources/TestData.xlsx
+++ b/src/main/resources/TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97EF5BCE-DC1A-4DE0-A856-C0C0E80EE395}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A12C6B97-B6D5-4E7F-9443-ABE0F6139CE9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,9 +48,6 @@
     <t>Delete Profile</t>
   </si>
   <si>
-    <t>dfvfd</t>
-  </si>
-  <si>
     <t>cvvc</t>
   </si>
   <si>
@@ -81,7 +78,10 @@
     <t>ilijhn</t>
   </si>
   <si>
-    <t>qdsxs</t>
+    <t>dfvfd1</t>
+  </si>
+  <si>
+    <t>qdsxs3</t>
   </si>
 </sst>
 </file>
@@ -402,7 +402,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -426,13 +426,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -440,13 +440,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -454,13 +454,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -468,10 +468,10 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
         <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
       </c>
       <c r="D5" t="s">
         <v>19</v>
